--- a/신영래/200326 - slice/전체 배열 변화.xlsx
+++ b/신영래/200326 - slice/전체 배열 변화.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YrShin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\VS Code\신영래\200326 - slice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{001A14DE-DE54-4A0F-8422-15F24E383EB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55849215-F2FD-492A-812C-D3B64122C806}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A0EC8F83-2356-4536-B1E1-F741E0B3E4AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -287,41 +288,41 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,7 +641,7 @@
   <dimension ref="B1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -714,28 +715,28 @@
       </c>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
     </row>
     <row r="4" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W4" s="4">
@@ -744,38 +745,38 @@
       <c r="Y4" s="4">
         <v>1</v>
       </c>
-      <c r="Z4" s="18" t="s">
+      <c r="Z4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="9" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-      <c r="Z5" s="18"/>
+      <c r="Z5" s="8"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.3">
       <c r="W6" s="4">
@@ -784,37 +785,37 @@
       <c r="Y6" s="4">
         <v>1</v>
       </c>
-      <c r="Z6" s="18"/>
+      <c r="Z6" s="8"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10" t="s">
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="11" t="s">
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.3">
       <c r="W8" s="5">
@@ -825,42 +826,42 @@
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="13"/>
+      <c r="G9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11" t="s">
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12" t="s">
+      <c r="K9" s="15"/>
+      <c r="L9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="13" t="s">
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="14" t="s">
+      <c r="P9" s="17"/>
+      <c r="Q9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="15" t="s">
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="U9" s="15"/>
+      <c r="U9" s="10"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.3">
       <c r="W10" s="5">
@@ -871,56 +872,56 @@
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="16">
+      <c r="C11" s="11"/>
+      <c r="D11" s="7">
         <v>3</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="7">
         <v>4</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="7">
         <v>5</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16">
+      <c r="H11" s="11"/>
+      <c r="I11" s="7">
         <v>8</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="7">
         <v>9</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="7">
         <v>10</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="17"/>
-      <c r="N11" s="16">
+      <c r="M11" s="11"/>
+      <c r="N11" s="7">
         <v>13</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="7">
         <v>14</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="7">
         <v>15</v>
       </c>
-      <c r="Q11" s="17" t="s">
+      <c r="Q11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="17"/>
-      <c r="S11" s="16">
+      <c r="R11" s="11"/>
+      <c r="S11" s="7">
         <v>18</v>
       </c>
-      <c r="T11" s="16">
+      <c r="T11" s="7">
         <v>19</v>
       </c>
-      <c r="U11" s="16">
+      <c r="U11" s="7">
         <v>20</v>
       </c>
     </row>
@@ -933,64 +934,64 @@
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B13" s="16">
+      <c r="B13" s="7">
         <v>1</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="7">
         <v>3</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="7">
         <v>4</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="7">
         <v>5</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="7">
         <v>6</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="7">
         <v>7</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="7">
         <v>8</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="7">
         <v>9</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="7">
         <v>10</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="7">
         <v>11</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="7">
         <v>12</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="7">
         <v>13</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13" s="7">
         <v>14</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13" s="7">
         <v>15</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="Q13" s="7">
         <v>16</v>
       </c>
-      <c r="R13" s="16">
+      <c r="R13" s="7">
         <v>17</v>
       </c>
-      <c r="S13" s="16">
+      <c r="S13" s="7">
         <v>18</v>
       </c>
-      <c r="T13" s="16">
+      <c r="T13" s="7">
         <v>19</v>
       </c>
-      <c r="U13" s="16">
+      <c r="U13" s="7">
         <v>20</v>
       </c>
     </row>
@@ -1013,6 +1014,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B3:U3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="L5:U5"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="Q7:U7"/>
     <mergeCell ref="Z4:Z6"/>
     <mergeCell ref="Q9:S9"/>
     <mergeCell ref="T9:U9"/>
@@ -1026,16 +1034,24 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:N9"/>
     <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B3:U3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="L5:U5"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="Q7:U7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B301783-B0CD-4FE1-9231-FC20A6F1A038}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>